--- a/Files/EXCEL Output/Assignment8.xlsx
+++ b/Files/EXCEL Output/Assignment8.xlsx
@@ -130,8 +130,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:I6" headerRowCount="1">
-  <autoFilter ref="A1:I6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Source" displayName="Source" ref="A1:I11" headerRowCount="1">
+  <autoFilter ref="A1:I11"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
@@ -533,7 +533,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -579,20 +579,20 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. "Table.TransformColumnTypes" changes the type of data in the table columns "Column1" and "Column2" to the type of text.
-2. Promoted Headers is a table operation which takes all of the columns of data, changes their data type to a specified type, and then promotes those columns to becoming headers.
-3. "Changed Type1" means that the column types for "Nominal GDP(INR, ?)" and "Zonal councils" were changed to text in the Promoted Headers table.
-4. Renaming two columns of a table from "Zonal councils" to "Zone" and "Nominal GDP(INR, ?)" to "Nominal GDP".
-5. This replaces any "?" values in the "Nominal GDP" column with an empty string.
-6. "This replaces the phrase 'lakh crore' with an empty value for the column 'Nominal GDP' in the table 'Replaced Value'."
-7. This sentence changes the type of the "Nominal GDP" column from its original data type to a currency data type.
+          <t xml:space="preserve">1. "Changed Type" is a function that converts the data types of two columns in a table from one type to another.
+2. Promoted Headers means that all of the scalar values in the table are made into column headers.
+3. Changed Type1 is transforming the columns "Nominal GDP (INR, ?)" and "Zonal Councils" to text type in the Promoted Headers table.
+4. Renamed Columns changes the names of the columns "Zonal councils" and "Nominal GDP(INR, ?)" to "Zone" and "Nominal GDP", respectively.
+5. This means that "?" values in the "Nominal GDP" column of the table were replaced with blank values.
+6. The phrase "lakh crore" has been replaced with nothing in the "Nominal GDP" column.
+7. The table had its values of "Nominal GDP" replaced, and was then converted to Currency type.
 </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
@@ -644,26 +644,26 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. This changes the data types of the columns in the GDP20012010_Table to text for the State/union territory column and any for the rest of the columns from 2001 to 2010.
-2. Unpivoting Other Columns means turning the data in multiple columns into rows with one column containing the attribute and the other containing the value.
-3. Appended Query is combining the Unpivoted Other Columns table and the Gross Domestic Product (GDP) from 2011-2014 table.
-4. The table's "Attribute" column has been renamed to "Year".
-5. "Changed Type1" is a transformation that changes the data type of the column called "Year" to a date type.
-6. The renamed columns1 table has renamed the value column to GDP.
-7. "Changed Type2" changes the data type of the column "GDP" from its original type to Currency type.
-8. Replacing any error values in the "Changed Type2" table with a 0 for any values in the "GDP" column.
-9. Merged Queries is the process of joining two tables, "Replaced Errors" and "GDP Growth Rate (2002-2014)", based on the common columns "State/union territory" and "Year" with extra information from the second table, "GDP Growth Rate (2002-2014)", included
-10. This command expands a column in a table of GDP Growth Rates from 2002-2014 by listing the state/union territory, year, and growth rate percentages.
-11. "Removed Columns" means two columns (State/union territory and Year) have been removed from the table of GDP Growth Rate (2002-2014).
-12. "Renamed Columns2" is a table that renamed a column called "GDP Growth Rate (2002-2014).Growth Rate(%)" to "Growth Rate(%)" and a column called "State/union territory" to "State".
-13. This sentence changes any null values in the "Growth Rate(%)" column of the "Renamed Columns2" table to 0.
+          <t xml:space="preserve">1. This is a command that changes the data types of certain columns in the table titled "GDP20012010_Table" to either text or any type.
+2. Unpivoted Other Columns is a process that rearranges table data so that the state or union territory and corresponding attribute are each placed in a separate column.
+3. "Appended Query" is a combination of the two tables, "Unpivoted Other Columns" and "GDP (2011-2014)".
+4. This sentence renames the "Attribute" column to "Year" in the previously appended query.
+5. "Changed Type1" is a function that changes the column datatype from the original to a date type, called 'Year'.
+6. Table "Changed Type1" was renamed and the column "Value" was changed to "GDP".
+7. "Changed Type2" converts the "GDP" column from its original type to a currency type.
+8. "Replaced Errors" means to replace any incorrect values in the Changed Type2 table with the specified value of 0 for the GDP column.
+9. Merged Queries combines data from two separate tables ("Replaced Errors" and "GDP Growth Rate (2002-2014)") based on common values of "State/Union Territory" and "Year" with additional data from the "GDP Growth Rate (2002-2014)" table.
+10. This formula expands the GDP Growth Rate (2002-2014) table by separating its columns into three different columns - State/union territory, Year, and Growth Rate(%).
+11. "Removed Columns" is a table created by removing the "State/union territory" and "Year" columns from the "Expanded GDP Growth Rate (2002-2014)" table.
+12. "Renamed Columns2" is a table created by renaming the columns of "Removed Columns" table to "Growth Rate(%)" and "State".
+13. If a "Growth Rate(%)" value is null, it is replaced with the number 0.
 </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
@@ -710,21 +710,21 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. This code changes the data types for the columns '2002' to '2010' to any type and the column 'State/union territory' to the text type.
-2. This statement removes any errors from the table that has been changed in type, specifically the row row containing "2002".
-3. Unpivoting Other Columns takes a table with "State/union territory" as its columns and transforms it into two columns: "Attribute" and "Value".
-4. Adding the results of two separate queries together and combining them into one table.
-5. Renamed Columns represents the Appended Query table whose Attribute column was renamed to Year.
-6. The table "Renamed Columns" has its "Year" column changed to a date type.
-7. The column titled "Value" has been renamed to "Growth Rate (%)" in the table.
-8. This renames a column and converts its data type to percentage.
+          <t xml:space="preserve">1. "Changed Type" changes the data types of the columns from "GrowthRate20022010_Table" from numbers to text for the columns "2002" to "2010" and from text to text for the column "State/union territory".
+2. Table.RemoveRowsWithErrors removes any rows with errors from the table "Changed Type" except the column 2002.
+3. Unpivoting Other Columns involves transforming the data in a table so that the values for different attributes are in separate columns.
+4. "Appended Query" adds the GDP Growth Rate (2011-2014) to the Unpivoted Other Columns table.
+5. This renames the "Attribute" column in the "Appended Query" table to "Year".
+6. "Changed Type1" changes the data type of the Year column to a date format.
+7. The table's "Value" column has been renamed to "Growth Rate(%)" column.
+8. This statement changes a column named "Growth Rate(%)" to a percentage type in a table called "Renamed Columns1".
 </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
@@ -767,17 +767,17 @@
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. "Changed Type" converts the data types of the columns to different ones in the GrowthRate20112014_Table table.
-2. Table.RemoveRowsWithErrors removes any rows with errors from the table, as indicated by the 2011 column.
-3. Removed all the rows with errors from the previous step that have an '2013' value.
-4. Unpivoting the other columns means rearranging the data so that each attribute has its own column with its corresponding value.
+          <t xml:space="preserve">1. "Changed Type" changes the data types of the columns in the table "GrowthRate20112014_Table" to text for "State/union territory", and any for the rest.
+2. "Table.RemoveRowsWithErrors" removes any rows with errors from the table "Changed Type" for the column "2011".
+3. This command removes any rows with errors from the "Removed Errors" table for the column "2013".
+4. Unpivoting "Other Columns" means reorganizing the data in specific columns to different rows, based on the values in the "State/union territory" column.
 </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
@@ -820,10 +820,10 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Promoted Headers is a transformation that changes all the scalar values in a table into columns, transforming the table into a structure suitable for further data analysis.
-2. "Changed Type1" transforms the data in the table "Promoted Headers" so that the columns State/union territory, 2011, 2012, 2013, 2014 and Column6 are set to the data types text, any, any, any, any and any respectively.
-3. This means to remove the column named "Column6" from the table "Changed Type1".
-4. Unpivoting other columns takes columns from a table, and restructures them into a new table with each column now being a row.
+          <t xml:space="preserve">1. It means to take the header rows from a table and promote them to field names, while also changing the data type of each field as appropriate.
+2. Changed Type1 is a process that assigns text types to certain columns in the Promoted Headers table.
+3. "Removed Columns" means that the specified column, "Column6", has been removed from the table "Changed Type1".
+4. Unpivoted Other Columns is a function that takes the columns in a table, removes the ones specified, and then spreads the remaining columns out into additional columns.
 </t>
         </is>
       </c>

--- a/Files/EXCEL Output/Assignment8.xlsx
+++ b/Files/EXCEL Output/Assignment8.xlsx
@@ -579,13 +579,13 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. "Changed Type" is a function that converts the data types of two columns in a table from one type to another.
-2. Promoted Headers means that all of the scalar values in the table are made into column headers.
-3. Changed Type1 is transforming the columns "Nominal GDP (INR, ?)" and "Zonal Councils" to text type in the Promoted Headers table.
-4. Renamed Columns changes the names of the columns "Zonal councils" and "Nominal GDP(INR, ?)" to "Zone" and "Nominal GDP", respectively.
-5. This means that "?" values in the "Nominal GDP" column of the table were replaced with blank values.
-6. The phrase "lakh crore" has been replaced with nothing in the "Nominal GDP" column.
-7. The table had its values of "Nominal GDP" replaced, and was then converted to Currency type.
+          <t xml:space="preserve">1. The command "Table.TransformColumnTypes" transforms the data types of certain columns in a source table to text.
+2. "Promoted Headers" makes the first row of a table the header row and changes all data below it into a single type of data.
+3. This changes the data type of the 'Nominal GDP (INR,?)' and 'Zonal councils' columns from their original type to text.
+4. Renamed Columns changes the column names of "Changed Type1" to "Zone" and "Nominal GDP(INR, ?)" to "Nominal GDP".
+5. This replaces any question marks in the 'Nominal GDP' column with blank values.
+6. This sentence instructs the computer to replace the phrase "lakh crore" with nothing in the "Nominal GDP" column of a table.
+7. This sentence changes the data type of the column "Nominal GDP" to a type of Currency.
 </t>
         </is>
       </c>
@@ -644,19 +644,19 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. This is a command that changes the data types of certain columns in the table titled "GDP20012010_Table" to either text or any type.
-2. Unpivoted Other Columns is a process that rearranges table data so that the state or union territory and corresponding attribute are each placed in a separate column.
-3. "Appended Query" is a combination of the two tables, "Unpivoted Other Columns" and "GDP (2011-2014)".
-4. This sentence renames the "Attribute" column to "Year" in the previously appended query.
-5. "Changed Type1" is a function that changes the column datatype from the original to a date type, called 'Year'.
-6. Table "Changed Type1" was renamed and the column "Value" was changed to "GDP".
-7. "Changed Type2" converts the "GDP" column from its original type to a currency type.
-8. "Replaced Errors" means to replace any incorrect values in the Changed Type2 table with the specified value of 0 for the GDP column.
-9. Merged Queries combines data from two separate tables ("Replaced Errors" and "GDP Growth Rate (2002-2014)") based on common values of "State/Union Territory" and "Year" with additional data from the "GDP Growth Rate (2002-2014)" table.
-10. This formula expands the GDP Growth Rate (2002-2014) table by separating its columns into three different columns - State/union territory, Year, and Growth Rate(%).
-11. "Removed Columns" is a table created by removing the "State/union territory" and "Year" columns from the "Expanded GDP Growth Rate (2002-2014)" table.
-12. "Renamed Columns2" is a table created by renaming the columns of "Removed Columns" table to "Growth Rate(%)" and "State".
-13. If a "Growth Rate(%)" value is null, it is replaced with the number 0.
+          <t xml:space="preserve">1. This changes the data types of the columns in the table 'GDP20012010_Table' to text and any.
+2. "Unpivoting Other Columns" means converting multiple columns into two, one for attributes and one for their corresponding values.
+3. "Appended Query" means combining two tables, "Unpivoted Other Columns" and "GDP (2011-2014)", into one table.
+4. The "Attribute" column has been renamed to "Year" in the Appended Query table.
+5. Table.TransformColumnTypes changes the data type of the "Year" column from its previous data type to "date".
+6. Table "Changed Type1" has been renamed to "Renamed Columns1" and the column "Value" has been changed to "GDP".
+7. "Changed Type2" is transforming the "GDP" column into a currency type.
+8. "Replaced Errors" replaces any errors in the "Changed Type2" table with 0 for the GDP column.
+9. Merged Queries will combine the information from two tables - "Replaced Errors" and "GDP Growth Rate (2002-2014)" - by joining the matching entries of "State/union territory" and "Year" and display all entries from the "Replaced Errors" table plus the related matching entries
+10. This operation takes the GDP Growth Rate (2002-2014) information from one table and expands it into three separate columns containing the State/Union territory, Year, and Growth Rate(%) information.
+11. This statement removes the columns labeled "State/union territory" and "Year" from the table "Expanded GDP Growth Rate (2002-2014)".
+12. RenameColumns2 changes the names of two columns from "GDP Growth Rate (2002-2014).Growth Rate(%)" to "Growth Rate(%)" and from "State/union territory" to "State".
+13. This sentence replaces any null values in the 'Growth Rate(%)' column with 0s.
 </t>
         </is>
       </c>
@@ -710,14 +710,14 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. "Changed Type" changes the data types of the columns from "GrowthRate20022010_Table" from numbers to text for the columns "2002" to "2010" and from text to text for the column "State/union territory".
-2. Table.RemoveRowsWithErrors removes any rows with errors from the table "Changed Type" except the column 2002.
-3. Unpivoting Other Columns involves transforming the data in a table so that the values for different attributes are in separate columns.
-4. "Appended Query" adds the GDP Growth Rate (2011-2014) to the Unpivoted Other Columns table.
-5. This renames the "Attribute" column in the "Appended Query" table to "Year".
-6. "Changed Type1" changes the data type of the Year column to a date format.
-7. The table's "Value" column has been renamed to "Growth Rate(%)" column.
-8. This statement changes a column named "Growth Rate(%)" to a percentage type in a table called "Renamed Columns1".
+          <t xml:space="preserve">1. "Changed Type" means that the table GrowthRate20022010_Table was modified so that the columns "2002" to "2010" are treated as any type, and the column "State/union territory" is treated as text.
+2. This command removes any rows with errors from a table that had its datatype changed, and specifically the row containing the value 2002.
+3. Unpivoted Other Columns is a process of turning data from multiple columns into two columns, "Attribute" and "Value".
+4. Appending a Query combines the results from two separate tables into one.
+5. "Renamed Columns" is the new table name that replaces "Appended Query" after its column named "Attribute" is renamed to "Year".
+6. This means the columns in the Renamed Columns table have been changed so that the column "Year" is now a date type.
+7. The table's Value column was renamed to Growth Rate(%) using Table.RenameColumns.
+8. This statement changes the data type of the "Growth Rate (%)" column from the previous step to a percentage type.
 </t>
         </is>
       </c>
@@ -767,10 +767,10 @@
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. "Changed Type" changes the data types of the columns in the table "GrowthRate20112014_Table" to text for "State/union territory", and any for the rest.
-2. "Table.RemoveRowsWithErrors" removes any rows with errors from the table "Changed Type" for the column "2011".
-3. This command removes any rows with errors from the "Removed Errors" table for the column "2013".
-4. Unpivoting "Other Columns" means reorganizing the data in specific columns to different rows, based on the values in the "State/union territory" column.
+          <t xml:space="preserve">1. The Changed Type command changes the data types of each column in the GrowthRate20112014_Table table to text, any, or any.
+2. Removed any rows with errors in the column "2011" from the table which was previously changed type.
+3. This code removes any rows with errors from the "Removed Errors" table, specifically from the column labeled "2013".
+4. Unpivoting Other Columns rearranges the columns in the Removed Errors1 table, putting all the State/union territory values in one column and the related attributes in another.
 </t>
         </is>
       </c>
@@ -820,10 +820,10 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. It means to take the header rows from a table and promote them to field names, while also changing the data type of each field as appropriate.
-2. Changed Type1 is a process that assigns text types to certain columns in the Promoted Headers table.
-3. "Removed Columns" means that the specified column, "Column6", has been removed from the table "Changed Type1".
-4. Unpivoted Other Columns is a function that takes the columns in a table, removes the ones specified, and then spreads the remaining columns out into additional columns.
+          <t xml:space="preserve">1. Promoted Headers is a function that takes table columns and combines them into one header row.
+2. "Changed Type1" changed the data type of the columns "State/union territory", "2011", "2012", "2013", "2014", and "Column6" to text, any, and any format, respectively.
+3. "Removed Columns" means to remove the column named "Column6" from the table "Changed Type1".
+4. Unpivoting other columns reorganizes the data so that each column is converted into multiple rows with additional columns indicating the original column values.
 </t>
         </is>
       </c>
